--- a/Thesis/Penelitian Mandiri III dan IV/Algoritma Grafik/Input/ppic.xlsx
+++ b/Thesis/Penelitian Mandiri III dan IV/Algoritma Grafik/Input/ppic.xlsx
@@ -41,91 +41,331 @@
     <t xml:space="preserve">PPIC</t>
   </si>
   <si>
-    <t xml:space="preserve">PPIC membuat plan pembelian BB berdasarkan forecast produk pada minggu 3,4,5,6 
-dan berdasarkan perhitungan stok BB di minggu 1 dan 2</t>
+    <t xml:space="preserve">PPIC makes a raw matt purchase plan based on product forecasts in weeks 3,4,5,6 
+And based on raw matt stock calculations in weeks 1 and 2</t>
   </si>
   <si>
     <t xml:space="preserve">W1</t>
   </si>
   <si>
-    <t xml:space="preserve">Pengiriman BB I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman BB I +  saldo BB &lt;= kapasitas gudang</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Delivery +  stock &lt;= warehouse capacity</t>
   </si>
   <si>
     <t xml:space="preserve">Produksi</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudah ada pemakaian BB dari cycle bulan sebelumnya. Misal P1.</t>
+    <t xml:space="preserve">Raw matt usage from the previous month's cycle (e.g. P1) has occurred.</t>
   </si>
   <si>
     <t xml:space="preserve">W2</t>
   </si>
   <si>
-    <t xml:space="preserve">Pengiriman BB II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stok BB akhir bulan
-siap digunakan untuk produksi bulan berikutnya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman BB II +  saldo BB &lt;= kapasitas gudang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudah ada pemakaian BB dari cycle bulan sebelumnya. Misal P2.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw matt stock at the end of the month, 
+Ready to be used for next month's production</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery +  stock &lt;= warehouse capacity</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw matt usage from the previous month's cycle (e.g. P2) has occurred.</t>
   </si>
   <si>
     <t xml:space="preserve">W3</t>
   </si>
   <si>
-    <t xml:space="preserve">Pengiriman BB III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman BB III +  saldo BB &lt;= kapasitas gudang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB I digunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisa BB yang tidak tergunakan
-menjadi saldo BB minggu I</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery +  stock &lt;= warehouse capacity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The remaining raw matt that is not used 
+Becomes the raw matt balance for the first week.</t>
   </si>
   <si>
     <t xml:space="preserve">W4</t>
   </si>
   <si>
-    <t xml:space="preserve">Pengiriman BB IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pengiriman BB IV +  saldo BB &lt;= kapasitas gudang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB II digunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisa BB yang tidak tergunakan
-menjadi saldo BB minggu II</t>
+    <t xml:space="preserve">4th Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th Delivery +  stock &lt;= warehouse capacity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The remaining raw matt that is not used 
+Becomes the raw matt balance for the second week.</t>
   </si>
   <si>
     <t xml:space="preserve">W5</t>
   </si>
   <si>
-    <t xml:space="preserve">BB III digunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisa BB yang tidak tergunakan
-menjadi saldo BB minggu III</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">rd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The remaining raw matt that is not used 
+Becomes the raw matt balance for the third week.</t>
   </si>
   <si>
     <t xml:space="preserve">W6</t>
   </si>
   <si>
-    <t xml:space="preserve">BB IV digunakan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sisa BB yang tidak tergunakan
-menjadi saldo BB minggu IV</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Delivery used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The remaining raw matt that is not used 
+Becomes the raw matt balance for the fourth week.</t>
   </si>
   <si>
     <t xml:space="preserve">netral</t>
@@ -198,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,6 +465,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,7 +527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +542,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -306,10 +568,10 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.16"/>
   </cols>
@@ -328,7 +590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -342,7 +604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -380,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -394,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2.8</v>
       </c>
@@ -405,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2.2</v>
       </c>
@@ -427,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
@@ -437,11 +699,11 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.1</v>
       </c>
@@ -453,7 +715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3.3</v>
       </c>
@@ -464,7 +726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3.7</v>
       </c>
@@ -485,7 +747,7 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -501,7 +763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>4.5</v>
       </c>
@@ -512,7 +774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>4.7</v>
       </c>
@@ -523,7 +785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>5</v>
       </c>
@@ -537,7 +799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>5.7</v>
       </c>
@@ -548,7 +810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>6</v>
       </c>
@@ -562,7 +824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>6.7</v>
       </c>
@@ -600,7 +862,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.07"/>
   </cols>
